--- a/Config/AllRegionsList.xlsx
+++ b/Config/AllRegionsList.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="911">
-  <si>
-    <t xml:space="preserve">CountryID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="931">
+  <si>
+    <t xml:space="preserve">RegionID</t>
   </si>
   <si>
     <t xml:space="preserve">ISO3</t>
@@ -115,6 +115,9 @@
     <t xml:space="preserve">Anguilla</t>
   </si>
   <si>
+    <t xml:space="preserve">Anguilla Island</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALB</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
+    <t xml:space="preserve">San Juan; Salta; Mendoza; Misiones; Argentina Distrito Federal; Córdoba; Chaco; Buenos Aires</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASM</t>
   </si>
   <si>
@@ -196,12 +202,18 @@
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Western Australia; Victoria; South Australia; Queensland; Northern Territory; New South Wales; New South Wales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Australasia</t>
   </si>
   <si>
     <t xml:space="preserve">Lord Howe Island</t>
   </si>
   <si>
+    <t xml:space="preserve">Lord Howe I.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tasmania</t>
   </si>
   <si>
@@ -469,7 +481,7 @@
     <t xml:space="preserve">Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">Vancouver Island</t>
+    <t xml:space="preserve">Vancouver Island; Quebec; Ontario; Newfoundland; British Columbia</t>
   </si>
   <si>
     <t xml:space="preserve">Northern America</t>
@@ -643,6 +655,9 @@
     <t xml:space="preserve">Cape Verde</t>
   </si>
   <si>
+    <t xml:space="preserve">Cabo Verde; Cape Verde Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cabo Verde</t>
   </si>
   <si>
@@ -766,7 +781,7 @@
     <t xml:space="preserve">Galapagos</t>
   </si>
   <si>
-    <t xml:space="preserve">Española; Fernandina; Floreana; Genovesa; Isabela; Pinta; Pinzón; San Cristóbal; Santa Cruz; Santa Fé; Santiago; </t>
+    <t xml:space="preserve">Española; Fernandina; Floreana; Genovesa; Isabela; Pinta; Pinzón; San Cristóbal; Santa Cruz; Santa Fé; Santiago; Ecuador (Galapagos)</t>
   </si>
   <si>
     <t xml:space="preserve">EST</t>
@@ -814,13 +829,16 @@
     <t xml:space="preserve">Balearic Islands</t>
   </si>
   <si>
+    <t xml:space="preserve">Spain (Balearic islands)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">Canary Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">El Hierro; Fuerteventura; Gran Canaria; La Gomera; La Palma; Lanzarote; Tenerife</t>
+    <t xml:space="preserve">El Hierro; Fuerteventura; Gran Canaria; La Gomera; La Palma; Lanzarote; Tenerife; Spain (Canary islands)</t>
   </si>
   <si>
     <t xml:space="preserve">Spain (mainland)</t>
@@ -853,6 +871,9 @@
     <t xml:space="preserve">Fiji</t>
   </si>
   <si>
+    <t xml:space="preserve">Fiji Island</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLK</t>
   </si>
   <si>
@@ -889,6 +910,9 @@
     <t xml:space="preserve">Faroe Islands</t>
   </si>
   <si>
+    <t xml:space="preserve">Faroe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Faroe Islands (the)</t>
   </si>
   <si>
@@ -901,7 +925,7 @@
     <t xml:space="preserve">Corsica</t>
   </si>
   <si>
-    <t xml:space="preserve">Corse</t>
+    <t xml:space="preserve">Corse; France (Corsica)</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -1267,9 +1291,15 @@
     <t xml:space="preserve">Sardinia</t>
   </si>
   <si>
+    <t xml:space="preserve">Italy (Sardinia)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sicily</t>
   </si>
   <si>
+    <t xml:space="preserve">Italy (Sicily)</t>
+  </si>
+  <si>
     <t xml:space="preserve">JEY</t>
   </si>
   <si>
@@ -1381,7 +1411,7 @@
     <t xml:space="preserve">Korea (Democratic People's Republic of)</t>
   </si>
   <si>
-    <t xml:space="preserve">North Korea; Democratic Repubic of Korea; Korea (the Democratic People's Republic of)</t>
+    <t xml:space="preserve">North Korea; Democratic Repubic of Korea; Korea (the Democratic People's Republic of); KOREA, DEMOCRATIC PEOPLE'S REPUBLIC OF</t>
   </si>
   <si>
     <t xml:space="preserve">North Korea</t>
@@ -1645,12 +1675,15 @@
     <t xml:space="preserve">Macedonia</t>
   </si>
   <si>
+    <t xml:space="preserve">Macedonia (the former Yugoslav Republic of); MACEDONIA, THE FORMER YUGOSLAV REPUBLIC OF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Macedonia (the former Yugoslav Republic of)</t>
   </si>
   <si>
-    <t xml:space="preserve">The former Yugoslav Republic of Macedonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">MLI</t>
   </si>
   <si>
@@ -1762,6 +1795,9 @@
     <t xml:space="preserve">Maldives</t>
   </si>
   <si>
+    <t xml:space="preserve">Maldive Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">MWI</t>
   </si>
   <si>
@@ -1780,7 +1816,7 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Rocas Alijos</t>
+    <t xml:space="preserve">Rocas Alijos; Zacatecas; Yucatán; Veracruz; Tamaulipas; Tabasco; Sonora; Sinaloa; San Luis Potosí; Quintana Roo; Querétaro; Puebla; Nuevo León; Nayarit; Morelos; Michoacán; Jalisco; Hidalgo; Guerrero; Durango; Chihuahua; Chiapas; Campeche; Oaxaca; Colima; Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">MYS</t>
@@ -1840,7 +1876,7 @@
     <t xml:space="preserve">Norfolk Island</t>
   </si>
   <si>
-    <t xml:space="preserve">Norfolk Islands</t>
+    <t xml:space="preserve">Norfolk Islands; Norfolk I.</t>
   </si>
   <si>
     <t xml:space="preserve">NGA</t>
@@ -1960,6 +1996,9 @@
     <t xml:space="preserve">French Polynesia</t>
   </si>
   <si>
+    <t xml:space="preserve">Clipperton Island; Society Islands</t>
+  </si>
+  <si>
     <t xml:space="preserve">PNG</t>
   </si>
   <si>
@@ -2056,12 +2095,18 @@
     <t xml:space="preserve">Azores</t>
   </si>
   <si>
+    <t xml:space="preserve">Portugal (Azores)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portugal</t>
   </si>
   <si>
     <t xml:space="preserve">Madeira</t>
   </si>
   <si>
+    <t xml:space="preserve">Portugal (Madeira)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portugal (mainland)</t>
   </si>
   <si>
@@ -2179,6 +2224,9 @@
     <t xml:space="preserve">Seychelles</t>
   </si>
   <si>
+    <t xml:space="preserve">Aldabra</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDN</t>
   </si>
   <si>
@@ -2311,6 +2359,9 @@
     <t xml:space="preserve">Sao Tome and Principe</t>
   </si>
   <si>
+    <t xml:space="preserve">Sao Tome; Principe</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLV</t>
   </si>
   <si>
@@ -2416,6 +2467,9 @@
     <t xml:space="preserve">Tajikistan</t>
   </si>
   <si>
+    <t xml:space="preserve">Tadjikistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">TKL</t>
   </si>
   <si>
@@ -2503,6 +2557,9 @@
     <t xml:space="preserve">Taiwan</t>
   </si>
   <si>
+    <t xml:space="preserve">Taiwan (Province of China); TAIWAN, PROVINCE OF CHINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taiwan (Province of China)</t>
   </si>
   <si>
@@ -2578,7 +2635,7 @@
     <t xml:space="preserve">United States of America</t>
   </si>
   <si>
-    <t xml:space="preserve">United States; USA</t>
+    <t xml:space="preserve">United States; USA; Florida; California; Arizona; Texas; Georgia(US); Alabama; Washington; New Jersey; Nevada; Kansas; Oregon; Wyoming; Virginia; Utah; South Carolina; Rhode Island; Pennsylvania; Oklahoma; Ohio; North Carolina; New York; New Mexico; New Hampshire; Nebraska; Montana; Missouri; Mississippi; Michigan; Massachusetts; Maryland; Maine; Louisiana; Kentucky; Indiana; Illinois; Idaho; Delaware; Connecticut; Colorado; Arkansas; District of Columbia</t>
   </si>
   <si>
     <t xml:space="preserve">URY</t>
@@ -2659,7 +2716,7 @@
     <t xml:space="preserve">Virgin Islands (U.S.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Virgin Islands, US</t>
+    <t xml:space="preserve">Virgin Islands, US; US Virgin Islands; VIRGIN ISLANDS, U.S</t>
   </si>
   <si>
     <t xml:space="preserve">Virgin Islands, U.S.</t>
@@ -2716,7 +2773,7 @@
     <t xml:space="preserve">Yemen</t>
   </si>
   <si>
-    <t xml:space="preserve">Soqotra; Yemen- Soqotra; Socotra Island</t>
+    <t xml:space="preserve">Soqotra; Yemen- Soqotra; Socotra Island; Socotra</t>
   </si>
   <si>
     <t xml:space="preserve">MYT</t>
@@ -2735,6 +2792,9 @@
   </si>
   <si>
     <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Cape province; KwaZulu-Natal</t>
   </si>
   <si>
     <t xml:space="preserve">ZMB</t>
@@ -2842,12 +2902,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2873,16 +2933,16 @@
   </sheetPr>
   <dimension ref="A1:K263"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E255" activeCellId="0" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,7 +3099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -3051,6 +3111,9 @@
       </c>
       <c r="D6" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3076,22 +3139,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>1</v>
@@ -3100,7 +3163,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,22 +3171,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>3</v>
@@ -3132,7 +3195,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,31 +3203,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,51 +3235,54 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>8</v>
@@ -3225,7 +3291,7 @@
         <v>27</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,28 +3299,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,19 +3328,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>1</v>
@@ -3283,68 +3349,74 @@
         <v>14</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="H15" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,31 +3424,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,22 +3456,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>8</v>
@@ -3408,7 +3480,7 @@
         <v>27</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,22 +3488,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>1</v>
@@ -3445,19 +3517,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>18</v>
@@ -3468,22 +3540,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>14</v>
@@ -3494,22 +3566,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>8</v>
@@ -3518,7 +3590,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,31 +3598,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3558,22 +3630,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>1</v>
@@ -3582,7 +3654,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,31 +3662,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,22 +3694,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>1</v>
@@ -3646,7 +3718,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,19 +3726,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>3</v>
@@ -3680,31 +3752,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,31 +3784,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,25 +3816,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>8</v>
@@ -3771,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,22 +3851,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>8</v>
@@ -3803,7 +3875,7 @@
         <v>27</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,25 +3883,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,22 +3909,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>8</v>
@@ -3861,7 +3933,7 @@
         <v>27</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,22 +3941,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>27</v>
@@ -3895,19 +3967,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>8</v>
@@ -3916,7 +3988,7 @@
         <v>27</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,25 +3996,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>8</v>
@@ -3951,7 +4023,7 @@
         <v>27</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,22 +4031,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,22 +4054,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,31 +4077,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,22 +4109,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>1</v>
@@ -4061,7 +4133,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,22 +4141,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>8</v>
@@ -4093,7 +4165,7 @@
         <v>27</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,31 +4173,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,31 +4205,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,34 +4237,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,31 +4272,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,34 +4304,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,22 +4339,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>1</v>
@@ -4291,7 +4363,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,34 +4371,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,28 +4406,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,22 +4435,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>8</v>
@@ -4387,7 +4459,7 @@
         <v>27</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,34 +4467,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="C50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E50" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,31 +4502,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,19 +4534,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>3</v>
@@ -4483,7 +4555,7 @@
         <v>18</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,22 +4563,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>8</v>
@@ -4515,7 +4587,7 @@
         <v>27</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,22 +4595,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>8</v>
@@ -4547,7 +4619,7 @@
         <v>27</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,22 +4627,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>8</v>
@@ -4579,7 +4651,7 @@
         <v>27</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,34 +4659,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4622,25 +4694,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>8</v>
@@ -4649,7 +4721,7 @@
         <v>27</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,31 +4729,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4689,22 +4761,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>3</v>
@@ -4713,7 +4785,7 @@
         <v>18</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,25 +4793,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>1</v>
@@ -4748,7 +4820,7 @@
         <v>14</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,19 +4828,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>1</v>
@@ -4777,7 +4849,7 @@
         <v>14</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,31 +4857,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,22 +4889,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>1</v>
@@ -4841,7 +4913,7 @@
         <v>14</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,22 +4921,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>8</v>
@@ -4873,7 +4945,7 @@
         <v>27</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,22 +4953,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>8</v>
@@ -4905,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,31 +4985,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,19 +5017,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>8</v>
@@ -4966,7 +5038,7 @@
         <v>27</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,22 +5046,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>8</v>
@@ -4998,7 +5070,7 @@
         <v>27</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,22 +5078,22 @@
         <v>78</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>1</v>
@@ -5030,7 +5102,7 @@
         <v>14</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,31 +5110,31 @@
         <v>79</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,31 +5142,31 @@
         <v>80</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,31 +5174,31 @@
         <v>81</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5134,22 +5206,25 @@
         <v>82</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>269</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>1</v>
@@ -5158,7 +5233,7 @@
         <v>14</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5166,34 +5241,34 @@
         <v>83</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,22 +5276,25 @@
         <v>84</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>273</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>1</v>
@@ -5225,7 +5303,7 @@
         <v>14</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,31 +5311,31 @@
         <v>85</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,22 +5343,22 @@
         <v>86</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>1</v>
@@ -5289,7 +5367,7 @@
         <v>14</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,28 +5375,31 @@
         <v>87</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>283</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5326,25 +5407,25 @@
         <v>88</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,51 +5433,54 @@
         <v>89</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>1</v>
@@ -5405,7 +5489,7 @@
         <v>14</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,25 +5497,25 @@
         <v>91</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>1</v>
@@ -5440,7 +5524,7 @@
         <v>14</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,22 +5532,22 @@
         <v>92</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>1</v>
@@ -5472,7 +5556,7 @@
         <v>14</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,31 +5564,31 @@
         <v>93</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,22 +5596,22 @@
         <v>94</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>1</v>
@@ -5536,7 +5620,7 @@
         <v>14</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,22 +5628,22 @@
         <v>95</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>8</v>
@@ -5568,7 +5652,7 @@
         <v>27</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,22 +5660,22 @@
         <v>96</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>3</v>
@@ -5600,7 +5684,7 @@
         <v>18</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,22 +5692,22 @@
         <v>97</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>8</v>
@@ -5632,7 +5716,7 @@
         <v>27</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,19 +5724,19 @@
         <v>98</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>14</v>
@@ -5663,31 +5747,31 @@
         <v>99</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I90" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,19 +5779,19 @@
         <v>100</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>14</v>
@@ -5718,31 +5802,31 @@
         <v>101</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I92" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5750,31 +5834,31 @@
         <v>102</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I93" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5782,31 +5866,31 @@
         <v>103</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="I94" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,22 +5898,22 @@
         <v>104</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>8</v>
@@ -5838,7 +5922,7 @@
         <v>27</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,31 +5930,31 @@
         <v>105</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I96" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5878,25 +5962,25 @@
         <v>106</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="I97" s="0" t="n">
         <v>1</v>
@@ -5905,7 +5989,7 @@
         <v>14</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,31 +5997,31 @@
         <v>107</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I98" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5945,19 +6029,19 @@
         <v>108</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>27</v>
@@ -5968,31 +6052,31 @@
         <v>109</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,31 +6084,31 @@
         <v>110</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="I101" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,22 +6116,22 @@
         <v>111</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="I102" s="0" t="n">
         <v>8</v>
@@ -6056,7 +6140,7 @@
         <v>27</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,25 +6148,25 @@
         <v>112</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="I103" s="0" t="n">
         <v>3</v>
@@ -6091,7 +6175,7 @@
         <v>18</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,28 +6183,28 @@
         <v>113</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="I104" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,19 +6212,19 @@
         <v>114</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="J105" s="0" t="s">
         <v>27</v>
@@ -6151,22 +6235,22 @@
         <v>115</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I106" s="0" t="n">
         <v>1</v>
@@ -6175,7 +6259,7 @@
         <v>14</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6183,19 +6267,19 @@
         <v>116</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="I107" s="0" t="n">
         <v>8</v>
@@ -6204,7 +6288,7 @@
         <v>27</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6212,22 +6296,22 @@
         <v>117</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="I108" s="0" t="n">
         <v>1</v>
@@ -6236,7 +6320,7 @@
         <v>14</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,34 +6328,34 @@
         <v>118</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I109" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,22 +6363,22 @@
         <v>119</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="I110" s="0" t="n">
         <v>1</v>
@@ -6303,7 +6387,7 @@
         <v>14</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6311,22 +6395,22 @@
         <v>120</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>3</v>
@@ -6335,7 +6419,7 @@
         <v>18</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,19 +6427,19 @@
         <v>121</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J112" s="0" t="s">
         <v>14</v>
@@ -6366,31 +6450,31 @@
         <v>122</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="I113" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6398,28 +6482,28 @@
         <v>123</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="I114" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,19 +6511,19 @@
         <v>124</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="J115" s="0" t="s">
         <v>18</v>
@@ -6450,25 +6534,25 @@
         <v>125</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="I116" s="0" t="n">
         <v>3</v>
@@ -6477,7 +6561,7 @@
         <v>18</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,19 +6569,19 @@
         <v>126</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="I117" s="0" t="n">
         <v>1</v>
@@ -6506,7 +6590,7 @@
         <v>14</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,22 +6598,22 @@
         <v>127</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="I118" s="0" t="n">
         <v>1</v>
@@ -6538,7 +6622,7 @@
         <v>14</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,22 +6630,25 @@
         <v>128</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>423</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="I119" s="0" t="n">
         <v>1</v>
@@ -6570,30 +6657,33 @@
         <v>14</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>129</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="I120" s="0" t="n">
         <v>1</v>
@@ -6602,7 +6692,7 @@
         <v>14</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6610,19 +6700,19 @@
         <v>130</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="J121" s="0" t="s">
         <v>14</v>
@@ -6633,22 +6723,22 @@
         <v>131</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>8</v>
@@ -6657,7 +6747,7 @@
         <v>27</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,19 +6755,19 @@
         <v>132</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="J123" s="0" t="s">
         <v>18</v>
@@ -6688,25 +6778,25 @@
         <v>133</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="I124" s="0" t="n">
         <v>3</v>
@@ -6715,7 +6805,7 @@
         <v>18</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,31 +6813,31 @@
         <v>134</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="I125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6755,22 +6845,22 @@
         <v>135</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="I126" s="0" t="n">
         <v>3</v>
@@ -6779,7 +6869,7 @@
         <v>18</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6787,22 +6877,22 @@
         <v>136</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="F127" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6810,28 +6900,28 @@
         <v>137</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F128" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="I128" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,34 +6929,34 @@
         <v>138</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="I129" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,22 +6964,22 @@
         <v>139</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>8</v>
@@ -6898,7 +6988,7 @@
         <v>27</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,25 +6996,25 @@
         <v>140</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="I131" s="0" t="n">
         <v>3</v>
@@ -6933,7 +7023,7 @@
         <v>18</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6941,25 +7031,25 @@
         <v>141</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F132" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="I132" s="0" t="n">
         <v>3</v>
@@ -6968,7 +7058,7 @@
         <v>18</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6976,19 +7066,19 @@
         <v>142</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F133" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="J133" s="0" t="s">
         <v>18</v>
@@ -6999,25 +7089,25 @@
         <v>143</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="F134" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="I134" s="0" t="n">
         <v>8</v>
@@ -7026,7 +7116,7 @@
         <v>27</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,19 +7124,19 @@
         <v>144</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="F135" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="J135" s="0" t="s">
         <v>18</v>
@@ -7057,34 +7147,34 @@
         <v>145</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F136" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="I136" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,19 +7182,19 @@
         <v>146</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F137" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="J137" s="0" t="s">
         <v>18</v>
@@ -7115,25 +7205,25 @@
         <v>147</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="I138" s="0" t="n">
         <v>8</v>
@@ -7142,7 +7232,7 @@
         <v>27</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7150,22 +7240,22 @@
         <v>148</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F139" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="I139" s="0" t="n">
         <v>1</v>
@@ -7174,7 +7264,7 @@
         <v>14</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7182,31 +7272,31 @@
         <v>149</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="I140" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,31 +7304,31 @@
         <v>150</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="I141" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,31 +7336,31 @@
         <v>151</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="I142" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7278,22 +7368,22 @@
         <v>152</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="I143" s="0" t="n">
         <v>1</v>
@@ -7302,7 +7392,7 @@
         <v>14</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7310,22 +7400,22 @@
         <v>153</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="I144" s="0" t="n">
         <v>1</v>
@@ -7334,7 +7424,7 @@
         <v>14</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,22 +7432,22 @@
         <v>154</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F145" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="I145" s="0" t="n">
         <v>1</v>
@@ -7366,7 +7456,7 @@
         <v>14</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7374,31 +7464,31 @@
         <v>155</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="I146" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,31 +7496,31 @@
         <v>156</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="I147" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,19 +7528,19 @@
         <v>157</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="J148" s="0" t="s">
         <v>14</v>
@@ -7461,25 +7551,25 @@
         <v>158</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="I149" s="0" t="n">
         <v>1</v>
@@ -7488,7 +7578,7 @@
         <v>14</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7496,19 +7586,19 @@
         <v>159</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F150" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="J150" s="0" t="s">
         <v>14</v>
@@ -7519,25 +7609,25 @@
         <v>160</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>8</v>
@@ -7551,31 +7641,31 @@
         <v>161</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,28 +7673,28 @@
         <v>162</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="I153" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7612,25 +7702,25 @@
         <v>163</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="H154" s="0" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="I154" s="0" t="n">
         <v>1</v>
@@ -7639,7 +7729,7 @@
         <v>14</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,31 +7737,31 @@
         <v>164</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="I155" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7679,28 +7769,28 @@
         <v>165</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F156" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7708,22 +7798,22 @@
         <v>166</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="I157" s="0" t="n">
         <v>3</v>
@@ -7732,7 +7822,7 @@
         <v>18</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,22 +7830,22 @@
         <v>167</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="F158" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="I158" s="0" t="n">
         <v>3</v>
@@ -7764,7 +7854,7 @@
         <v>18</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7772,28 +7862,28 @@
         <v>168</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7801,22 +7891,22 @@
         <v>169</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="F160" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="I160" s="0" t="n">
         <v>8</v>
@@ -7825,7 +7915,7 @@
         <v>27</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7833,31 +7923,31 @@
         <v>170</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7865,22 +7955,22 @@
         <v>171</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>8</v>
@@ -7889,7 +7979,7 @@
         <v>27</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7897,22 +7987,22 @@
         <v>172</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="I163" s="0" t="n">
         <v>1</v>
@@ -7921,7 +8011,7 @@
         <v>14</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,63 +8019,66 @@
         <v>173</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="I164" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>174</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>579</v>
+        <v>590</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="F165" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="I165" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7993,31 +8086,31 @@
         <v>175</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="F166" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="H166" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="I166" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8025,31 +8118,31 @@
         <v>176</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="F167" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="I167" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8057,28 +8150,28 @@
         <v>177</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F168" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="I168" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8086,28 +8179,28 @@
         <v>178</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F169" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8115,31 +8208,31 @@
         <v>179</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="H170" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="I170" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K170" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8147,31 +8240,31 @@
         <v>180</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="F171" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="H171" s="0" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="I171" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8179,31 +8272,31 @@
         <v>181</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F172" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="H172" s="0" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="I172" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8211,34 +8304,34 @@
         <v>182</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F173" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="I173" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8246,31 +8339,31 @@
         <v>183</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="F174" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="I174" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8278,22 +8371,22 @@
         <v>184</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="I175" s="0" t="n">
         <v>8</v>
@@ -8302,7 +8395,7 @@
         <v>27</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,22 +8403,22 @@
         <v>185</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="F176" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="H176" s="0" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="I176" s="0" t="n">
         <v>1</v>
@@ -8334,7 +8427,7 @@
         <v>14</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8342,22 +8435,22 @@
         <v>186</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="F177" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="H177" s="0" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="I177" s="0" t="n">
         <v>1</v>
@@ -8366,7 +8459,7 @@
         <v>14</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8374,31 +8467,31 @@
         <v>187</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="F178" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="H178" s="0" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="I178" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8406,31 +8499,31 @@
         <v>188</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="F179" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="H179" s="0" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="I179" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8438,25 +8531,25 @@
         <v>189</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="F180" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="I180" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8464,31 +8557,31 @@
         <v>190</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>632</v>
+        <v>642</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>644</v>
       </c>
       <c r="F181" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="H181" s="0" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="I181" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8496,31 +8589,31 @@
         <v>191</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="F182" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="H182" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="I182" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8528,22 +8621,22 @@
         <v>192</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="F183" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="H183" s="0" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="I183" s="0" t="n">
         <v>3</v>
@@ -8552,7 +8645,7 @@
         <v>18</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8560,22 +8653,22 @@
         <v>193</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="H184" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="I184" s="0" t="n">
         <v>8</v>
@@ -8584,7 +8677,7 @@
         <v>27</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8592,22 +8685,22 @@
         <v>194</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="H185" s="0" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="I185" s="0" t="n">
         <v>8</v>
@@ -8616,36 +8709,39 @@
         <v>27</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>195</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="I186" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8653,31 +8749,31 @@
         <v>196</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="F187" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="H187" s="0" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="I187" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8685,31 +8781,31 @@
         <v>197</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="F188" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="H188" s="0" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="I188" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8717,19 +8813,19 @@
         <v>198</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="F189" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="J189" s="0" t="s">
         <v>18</v>
@@ -8740,22 +8836,22 @@
         <v>199</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="F190" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="H190" s="0" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="I190" s="0" t="n">
         <v>1</v>
@@ -8764,7 +8860,7 @@
         <v>14</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8772,34 +8868,34 @@
         <v>200</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="F191" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="H191" s="0" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8807,31 +8903,31 @@
         <v>201</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="F192" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="I192" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8839,22 +8935,22 @@
         <v>202</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="H193" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="I193" s="0" t="n">
         <v>8</v>
@@ -8863,7 +8959,7 @@
         <v>27</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8871,22 +8967,22 @@
         <v>203</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="F194" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="I194" s="0" t="n">
         <v>3</v>
@@ -8895,88 +8991,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>204</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>677</v>
+        <v>688</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>204</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>679</v>
+        <v>688</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="F196" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="H196" s="0" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="I196" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>205</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>678</v>
+        <v>692</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="H197" s="0" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="I197" s="0" t="n">
         <v>1</v>
@@ -8985,7 +9090,7 @@
         <v>14</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8993,22 +9098,22 @@
         <v>206</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="F198" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9016,22 +9121,22 @@
         <v>207</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="F199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="H199" s="0" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="I199" s="0" t="n">
         <v>8</v>
@@ -9040,7 +9145,7 @@
         <v>27</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9048,22 +9153,22 @@
         <v>208</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="I200" s="0" t="n">
         <v>3</v>
@@ -9072,7 +9177,7 @@
         <v>18</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9080,34 +9185,34 @@
         <v>209</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="F201" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="I201" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9115,22 +9220,22 @@
         <v>210</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="F202" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="H202" s="0" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>1</v>
@@ -9139,7 +9244,7 @@
         <v>14</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9147,19 +9252,19 @@
         <v>211</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="F203" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="J203" s="0" t="s">
         <v>14</v>
@@ -9170,22 +9275,22 @@
         <v>212</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="F204" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="I204" s="0" t="n">
         <v>3</v>
@@ -9194,7 +9299,7 @@
         <v>18</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9202,31 +9307,31 @@
         <v>213</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="F205" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="H205" s="0" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="I205" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9234,22 +9339,22 @@
         <v>214</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="F206" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="I206" s="0" t="n">
         <v>3</v>
@@ -9258,7 +9363,7 @@
         <v>18</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,51 +9371,54 @@
         <v>215</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="F207" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>216</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>718</v>
+        <v>733</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="F208" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="I208" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9318,34 +9426,34 @@
         <v>217</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="H209" s="0" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="I209" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9353,22 +9461,22 @@
         <v>218</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="F210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="H210" s="0" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="I210" s="0" t="n">
         <v>1</v>
@@ -9377,7 +9485,7 @@
         <v>14</v>
       </c>
       <c r="K210" s="0" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9385,31 +9493,31 @@
         <v>219</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="F211" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H211" s="0" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="I211" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9417,31 +9525,31 @@
         <v>220</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="F212" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="I212" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,22 +9557,22 @@
         <v>221</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="F213" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="I213" s="0" t="n">
         <v>1</v>
@@ -9473,7 +9581,7 @@
         <v>14</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9481,22 +9589,22 @@
         <v>222</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="F214" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="I214" s="0" t="n">
         <v>1</v>
@@ -9505,7 +9613,7 @@
         <v>14</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9513,22 +9621,22 @@
         <v>223</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="F215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="H215" s="0" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="I215" s="0" t="n">
         <v>1</v>
@@ -9537,7 +9645,7 @@
         <v>14</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9545,31 +9653,31 @@
         <v>224</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="F216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="H216" s="0" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="I216" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K216" s="0" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9577,19 +9685,19 @@
         <v>225</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="F217" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="J217" s="4" t="s">
         <v>14</v>
@@ -9600,31 +9708,31 @@
         <v>226</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="F218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="H218" s="0" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="I218" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9632,31 +9740,31 @@
         <v>227</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="F219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="H219" s="0" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="I219" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9664,22 +9772,22 @@
         <v>228</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="F220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="I220" s="0" t="n">
         <v>8</v>
@@ -9688,7 +9796,7 @@
         <v>27</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9696,31 +9804,34 @@
         <v>229</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>762</v>
+        <v>778</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>779</v>
       </c>
       <c r="F221" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="H221" s="0" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="I221" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9728,19 +9839,19 @@
         <v>230</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="F222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="J222" s="0" t="s">
         <v>27</v>
@@ -9751,22 +9862,22 @@
         <v>231</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="F223" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>8</v>
@@ -9775,7 +9886,7 @@
         <v>27</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9783,22 +9894,22 @@
         <v>232</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="F224" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>3</v>
@@ -9812,34 +9923,34 @@
         <v>233</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="F225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="H225" s="0" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="I225" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9847,22 +9958,22 @@
         <v>234</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="F226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="I226" s="0" t="n">
         <v>8</v>
@@ -9876,31 +9987,31 @@
         <v>235</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="F227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9908,31 +10019,31 @@
         <v>236</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="F228" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>9</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9940,31 +10051,31 @@
         <v>237</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="F229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="H229" s="0" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9972,51 +10083,54 @@
         <v>238</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="F230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="H230" s="0" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="I230" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
         <v>239</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>797</v>
+        <v>814</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>815</v>
       </c>
       <c r="F231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>3</v>
@@ -10025,7 +10139,7 @@
         <v>18</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10033,22 +10147,22 @@
         <v>240</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="F232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10056,25 +10170,25 @@
         <v>241</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="F233" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10082,19 +10196,19 @@
         <v>242</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>18</v>
@@ -10105,31 +10219,31 @@
         <v>243</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="F235" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="H235" s="0" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="I235" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10137,31 +10251,31 @@
         <v>244</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="F236" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="H236" s="0" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="I236" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,31 +10283,31 @@
         <v>245</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="F237" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="H237" s="0" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10201,19 +10315,19 @@
         <v>246</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="F238" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="J238" s="0" t="s">
         <v>27</v>
@@ -10224,22 +10338,22 @@
         <v>247</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="F239" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10247,25 +10361,25 @@
         <v>248</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="F240" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="I240" s="0" t="n">
         <v>3</v>
@@ -10274,7 +10388,7 @@
         <v>18</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10282,34 +10396,34 @@
         <v>249</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="F241" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="H241" s="0" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="I241" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10317,22 +10431,22 @@
         <v>250</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="F242" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="I242" s="0" t="n">
         <v>1</v>
@@ -10341,7 +10455,7 @@
         <v>14</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10349,31 +10463,31 @@
         <v>251</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="F243" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="H243" s="0" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="I243" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10381,31 +10495,31 @@
         <v>252</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="F244" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10413,31 +10527,31 @@
         <v>253</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>846</v>
+        <v>863</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>865</v>
       </c>
       <c r="F245" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="H245" s="0" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="I245" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10445,31 +10559,31 @@
         <v>254</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>849</v>
+        <v>863</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>868</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="F246" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="I246" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K246" s="0" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10477,31 +10591,31 @@
         <v>255</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="F247" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="I247" s="0" t="n">
         <v>7</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10509,22 +10623,22 @@
         <v>256</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="F248" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="H248" s="0" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="I248" s="0" t="n">
         <v>8</v>
@@ -10533,7 +10647,7 @@
         <v>27</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10541,19 +10655,19 @@
         <v>257</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
       <c r="F249" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>18</v>
@@ -10564,22 +10678,22 @@
         <v>258</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="F250" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="J250" s="0" t="s">
         <v>14</v>
@@ -10590,22 +10704,22 @@
         <v>259</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="F251" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="I251" s="0" t="n">
         <v>8</v>
@@ -10614,7 +10728,7 @@
         <v>27</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10622,25 +10736,25 @@
         <v>260</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="F252" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="H252" s="0" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="I252" s="0" t="n">
         <v>8</v>
@@ -10649,7 +10763,7 @@
         <v>27</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10657,22 +10771,22 @@
         <v>261</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="F253" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="I253" s="0" t="n">
         <v>8</v>
@@ -10686,25 +10800,25 @@
         <v>262</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="F254" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G254" s="0" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="H254" s="0" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="I254" s="0" t="n">
         <v>8</v>
@@ -10713,7 +10827,7 @@
         <v>27</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10721,25 +10835,25 @@
         <v>263</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="F255" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10747,22 +10861,22 @@
         <v>264</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="F256" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10770,22 +10884,22 @@
         <v>265</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="F257" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10793,28 +10907,28 @@
         <v>266</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="F258" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="I258" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10822,25 +10936,25 @@
         <v>267</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="F259" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G259" s="0" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="H259" s="0" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="I259" s="0" t="n">
         <v>3</v>
@@ -10849,7 +10963,7 @@
         <v>18</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10857,60 +10971,63 @@
         <v>268</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="F260" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G260" s="0" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="H260" s="0" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="I260" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
         <v>269</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>904</v>
+        <v>923</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>924</v>
       </c>
       <c r="F261" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G261" s="0" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="I261" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10918,28 +11035,28 @@
         <v>270</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="F262" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G262" s="0" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="I262" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,28 +11064,28 @@
         <v>271</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="F263" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G263" s="0" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="I263" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
